--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H2">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>2135.98065706469</v>
+        <v>0.1364227957546667</v>
       </c>
       <c r="R2">
-        <v>19223.82591358221</v>
+        <v>1.227805161792</v>
       </c>
       <c r="S2">
-        <v>0.06512874119555073</v>
+        <v>3.229975285025907E-05</v>
       </c>
       <c r="T2">
-        <v>0.06512874119555075</v>
+        <v>3.229975285025907E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H3">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>174.5712132106897</v>
+        <v>0.4078143558568889</v>
       </c>
       <c r="R3">
-        <v>1571.140918896207</v>
+        <v>3.670329202712</v>
       </c>
       <c r="S3">
-        <v>0.005322896219957658</v>
+        <v>9.655499896551947E-05</v>
       </c>
       <c r="T3">
-        <v>0.005322896219957659</v>
+        <v>9.655499896551946E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H4">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>102.397650030762</v>
+        <v>0.239210296592</v>
       </c>
       <c r="R4">
-        <v>921.578850276858</v>
+        <v>2.152892669328</v>
       </c>
       <c r="S4">
-        <v>0.003122233352548613</v>
+        <v>5.663594134995925E-05</v>
       </c>
       <c r="T4">
-        <v>0.003122233352548613</v>
+        <v>5.663594134995924E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>26723.0817057909</v>
+        <v>730.611140017352</v>
       </c>
       <c r="R5">
-        <v>240507.7353521181</v>
+        <v>6575.500260156168</v>
       </c>
       <c r="S5">
-        <v>0.8148204276136856</v>
+        <v>0.1729810558540708</v>
       </c>
       <c r="T5">
-        <v>0.8148204276136857</v>
+        <v>0.1729810558540708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>2184.046367029914</v>
@@ -818,10 +818,10 @@
         <v>19656.41730326922</v>
       </c>
       <c r="S6">
-        <v>0.06659432524676932</v>
+        <v>0.5170994882368057</v>
       </c>
       <c r="T6">
-        <v>0.06659432524676934</v>
+        <v>0.5170994882368057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>1281.088739826618</v>
@@ -880,10 +880,10 @@
         <v>11529.79865843956</v>
       </c>
       <c r="S7">
-        <v>0.03906200962482549</v>
+        <v>0.3033133095297539</v>
       </c>
       <c r="T7">
-        <v>0.0390620096248255</v>
+        <v>0.3033133095297538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
         <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>172.7207248986022</v>
+        <v>4.722198102453334</v>
       </c>
       <c r="R8">
-        <v>1554.48652408742</v>
+        <v>42.49978292208001</v>
       </c>
       <c r="S8">
-        <v>0.005266472500030832</v>
+        <v>0.001118037720715657</v>
       </c>
       <c r="T8">
-        <v>0.005266472500030832</v>
+        <v>0.001118037720715656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
         <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>14.11626383059778</v>
@@ -1004,10 +1004,10 @@
         <v>127.04637447538</v>
       </c>
       <c r="S9">
-        <v>0.0004304226682157975</v>
+        <v>0.003342196810841731</v>
       </c>
       <c r="T9">
-        <v>0.0004304226682157975</v>
+        <v>0.00334219681084173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
         <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
-        <v>8.28012944908</v>
+        <v>8.280129449080002</v>
       </c>
       <c r="R10">
-        <v>74.52116504172</v>
+        <v>74.52116504172001</v>
       </c>
       <c r="S10">
-        <v>0.0002524715784158231</v>
+        <v>0.00196042115464627</v>
       </c>
       <c r="T10">
-        <v>0.0002524715784158231</v>
+        <v>0.001960421154646269</v>
       </c>
     </row>
   </sheetData>
